--- a/Resources/Resources for dissertation/Evaluation.xlsx
+++ b/Resources/Resources for dissertation/Evaluation.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/AudienceAttention/Resources/Resources for dissertation/"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Image</t>
   </si>
@@ -105,16 +105,40 @@
   </si>
   <si>
     <t>Probably want to do these weighted as with head pose</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Human Rank</t>
+  </si>
+  <si>
+    <t>Computer Rank</t>
+  </si>
+  <si>
+    <t>Image Number</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Squared Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -271,11 +295,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,6 +458,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f>I3*J3</f>
+        <f t="shared" ref="K3:K12" si="0">I3*J3</f>
         <v>0</v>
       </c>
       <c r="M3" s="4">
@@ -683,7 +884,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F12" si="0">E4*D4</f>
+        <f t="shared" ref="F4:F12" si="1">E4*D4</f>
         <v>0</v>
       </c>
       <c r="H4" s="4">
@@ -692,7 +893,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="5">
-        <f>I4*J4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="4">
@@ -710,7 +911,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="4">
@@ -719,7 +920,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="5">
-        <f>I5*J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
@@ -737,7 +938,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -746,7 +947,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5">
-        <f>I6*J6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="4">
@@ -764,7 +965,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="4">
@@ -773,7 +974,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5">
-        <f>I7*J7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="4">
@@ -791,7 +992,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="4">
@@ -800,7 +1001,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5">
-        <f>I8*J8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="4">
@@ -818,7 +1019,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="4">
@@ -827,7 +1028,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5">
-        <f>I9*J9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="4">
@@ -845,7 +1046,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
@@ -854,7 +1055,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="5">
-        <f>I10*J10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="4">
@@ -872,7 +1073,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="4">
@@ -881,7 +1082,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5">
-        <f>I11*J11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="4">
@@ -899,7 +1100,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="4">
@@ -908,7 +1109,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="5">
-        <f>I12*J12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="4">
@@ -1115,7 +1316,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="5">
-        <f t="shared" ref="F21:F29" si="1">E21*D21</f>
+        <f t="shared" ref="F21:F29" si="2">E21*D21</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
@@ -1124,7 +1325,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="5">
-        <f t="shared" ref="K21:K29" si="2">J21*I21</f>
+        <f t="shared" ref="K21:K29" si="3">J21*I21</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
@@ -1133,7 +1334,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:P29" si="3">O21*N21</f>
+        <f t="shared" ref="P21:P29" si="4">O21*N21</f>
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1345,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="4">
@@ -1153,7 +1354,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
@@ -1162,7 +1363,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1173,7 +1374,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="4">
@@ -1182,7 +1383,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="4">
@@ -1191,7 +1392,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1202,7 +1403,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="4">
@@ -1211,7 +1412,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="4">
@@ -1220,7 +1421,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1231,7 +1432,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -1240,7 +1441,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="4">
@@ -1249,7 +1450,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1260,7 +1461,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -1269,7 +1470,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="4">
@@ -1278,7 +1479,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1490,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="4">
@@ -1298,7 +1499,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="4">
@@ -1307,7 +1508,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1519,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="4">
@@ -1327,7 +1528,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="4">
@@ -1336,7 +1537,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1347,7 +1548,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="4">
@@ -1356,7 +1557,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="4">
@@ -1365,7 +1566,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1492,7 +1693,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="5">
-        <f t="shared" ref="F35:F43" si="4">E35*D35</f>
+        <f t="shared" ref="F35:F43" si="5">E35*D35</f>
         <v>0</v>
       </c>
       <c r="H35" s="13"/>
@@ -1507,7 +1708,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H36" s="13"/>
@@ -1522,7 +1723,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37" s="13"/>
@@ -1537,7 +1738,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H38" s="13"/>
@@ -1552,7 +1753,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39" s="13"/>
@@ -1567,7 +1768,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40" s="13"/>
@@ -1582,7 +1783,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41" s="13"/>
@@ -1597,7 +1798,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="13"/>
@@ -1612,7 +1813,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43" s="13"/>
@@ -1655,7 +1856,410 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
     </row>
+    <row r="47" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+      <c r="D49" s="19">
+        <v>19</v>
+      </c>
+      <c r="E49" s="28">
+        <v>10</v>
+      </c>
+      <c r="F49" s="25">
+        <f>D49-E49</f>
+        <v>9</v>
+      </c>
+      <c r="G49" s="20">
+        <f>POWER(F49,2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="15">
+        <v>2</v>
+      </c>
+      <c r="D50" s="14">
+        <v>6</v>
+      </c>
+      <c r="E50" s="29">
+        <v>8</v>
+      </c>
+      <c r="F50" s="26">
+        <f t="shared" ref="F50:F67" si="6">D50-E50</f>
+        <v>-2</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" ref="G50:G67" si="7">POWER(F50,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="15">
+        <v>3</v>
+      </c>
+      <c r="D51" s="14">
+        <v>13</v>
+      </c>
+      <c r="E51" s="29">
+        <v>17</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="15">
+        <v>4</v>
+      </c>
+      <c r="D52" s="14">
+        <v>8</v>
+      </c>
+      <c r="E52" s="29">
+        <v>6</v>
+      </c>
+      <c r="F52" s="26">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="15">
+        <v>5</v>
+      </c>
+      <c r="D53" s="14">
+        <v>14</v>
+      </c>
+      <c r="E53" s="29">
+        <v>7</v>
+      </c>
+      <c r="F53" s="26">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="15">
+        <v>6</v>
+      </c>
+      <c r="D54" s="14">
+        <v>4</v>
+      </c>
+      <c r="E54" s="29">
+        <v>12</v>
+      </c>
+      <c r="F54" s="26">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55" s="15">
+        <v>7</v>
+      </c>
+      <c r="D55" s="14">
+        <v>7</v>
+      </c>
+      <c r="E55" s="29">
+        <v>11</v>
+      </c>
+      <c r="F55" s="26">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="15">
+        <v>8</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2</v>
+      </c>
+      <c r="E56" s="29">
+        <v>2</v>
+      </c>
+      <c r="F56" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57" s="15">
+        <v>9</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+      <c r="E57" s="29">
+        <v>1</v>
+      </c>
+      <c r="F57" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58" s="15">
+        <v>10</v>
+      </c>
+      <c r="D58" s="14">
+        <v>11</v>
+      </c>
+      <c r="E58" s="29">
+        <v>13</v>
+      </c>
+      <c r="F58" s="26">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C59" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" s="14">
+        <v>12</v>
+      </c>
+      <c r="E59" s="29">
+        <v>3</v>
+      </c>
+      <c r="F59" s="26">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60" s="15">
+        <v>12</v>
+      </c>
+      <c r="D60" s="14">
+        <v>15</v>
+      </c>
+      <c r="E60" s="29">
+        <v>19</v>
+      </c>
+      <c r="F60" s="26">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61" s="15">
+        <v>13</v>
+      </c>
+      <c r="D61" s="14">
+        <v>17</v>
+      </c>
+      <c r="E61" s="29">
+        <v>16</v>
+      </c>
+      <c r="F61" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C62" s="15">
+        <v>14</v>
+      </c>
+      <c r="D62" s="14">
+        <v>3</v>
+      </c>
+      <c r="E62" s="29">
+        <v>5</v>
+      </c>
+      <c r="F62" s="26">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="15">
+        <v>15</v>
+      </c>
+      <c r="D63" s="14">
+        <v>5</v>
+      </c>
+      <c r="E63" s="29">
+        <v>15</v>
+      </c>
+      <c r="F63" s="26">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C64" s="15">
+        <v>16</v>
+      </c>
+      <c r="D64" s="14">
+        <v>9</v>
+      </c>
+      <c r="E64" s="29">
+        <v>4</v>
+      </c>
+      <c r="F64" s="26">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="15">
+        <v>17</v>
+      </c>
+      <c r="D65" s="14">
+        <v>10</v>
+      </c>
+      <c r="E65" s="29">
+        <v>9</v>
+      </c>
+      <c r="F65" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="15">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14">
+        <v>16</v>
+      </c>
+      <c r="E66" s="29">
+        <v>18</v>
+      </c>
+      <c r="F66" s="26">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="16">
+        <v>19</v>
+      </c>
+      <c r="D67" s="17">
+        <v>18</v>
+      </c>
+      <c r="E67" s="30">
+        <v>14</v>
+      </c>
+      <c r="F67" s="27">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G68" s="2">
+        <f>SUM(G49:G67)</f>
+        <v>486</v>
+      </c>
+      <c r="H68" s="2">
+        <f>6*G68</f>
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H69" s="2">
+        <f>19*(19*19-1)</f>
+        <v>6840</v>
+      </c>
+      <c r="I69" s="2">
+        <f>1-H68/H69</f>
+        <v>0.5736842105263158</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Resources/Resources for dissertation/Evaluation.xlsx
+++ b/Resources/Resources for dissertation/Evaluation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Image</t>
   </si>
@@ -123,6 +123,51 @@
   </si>
   <si>
     <t>Squared Difference</t>
+  </si>
+  <si>
+    <t>Lighting change</t>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t>Correct Posture</t>
+  </si>
+  <si>
+    <t>Incorrect Posture</t>
+  </si>
+  <si>
+    <t>Correct Occlusion</t>
+  </si>
+  <si>
+    <t>Incorrect Occlusion</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Correct Looking Forward</t>
+  </si>
+  <si>
+    <t>Incorrect looking forward</t>
+  </si>
+  <si>
+    <t>+30</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>+60</t>
+  </si>
+  <si>
+    <t>+90</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>Total Correct Detections</t>
   </si>
 </sst>
 </file>
@@ -152,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -429,11 +474,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -500,6 +587,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="J46" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1460,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:P29" si="4">O21*N21</f>
+        <f>O21*N21</f>
         <v>0</v>
       </c>
     </row>
@@ -1363,7 +1489,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="5">
-        <f t="shared" si="4"/>
+        <f>O22*N22</f>
         <v>0</v>
       </c>
     </row>
@@ -1392,7 +1518,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="5">
-        <f t="shared" si="4"/>
+        <f>O23*N23</f>
         <v>0</v>
       </c>
     </row>
@@ -1421,7 +1547,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="5">
-        <f t="shared" si="4"/>
+        <f>O24*N24</f>
         <v>0</v>
       </c>
     </row>
@@ -1450,7 +1576,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="5">
-        <f t="shared" si="4"/>
+        <f>O25*N25</f>
         <v>0</v>
       </c>
     </row>
@@ -1479,7 +1605,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="5">
-        <f t="shared" si="4"/>
+        <f>O26*N26</f>
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1634,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="5">
-        <f t="shared" si="4"/>
+        <f>O27*N27</f>
         <v>0</v>
       </c>
     </row>
@@ -1537,7 +1663,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="5">
-        <f t="shared" si="4"/>
+        <f>O28*N28</f>
         <v>0</v>
       </c>
     </row>
@@ -1566,7 +1692,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="5">
-        <f t="shared" si="4"/>
+        <f>O29*N29</f>
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1770,7 @@
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1793,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C34" s="4">
         <v>1</v>
       </c>
@@ -1686,14 +1812,14 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="5">
-        <f t="shared" ref="F35:F43" si="5">E35*D35</f>
+        <f t="shared" ref="F35:F43" si="4">E35*D35</f>
         <v>0</v>
       </c>
       <c r="H35" s="13"/>
@@ -1701,14 +1827,14 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="13"/>
@@ -1716,14 +1842,14 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C37" s="4">
         <v>4</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H37" s="13"/>
@@ -1731,14 +1857,14 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C38" s="4">
         <v>5</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H38" s="13"/>
@@ -1746,14 +1872,14 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C39" s="4">
         <v>6</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H39" s="13"/>
@@ -1761,14 +1887,14 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C40" s="4">
         <v>7</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H40" s="13"/>
@@ -1776,14 +1902,14 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C41" s="4">
         <v>8</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H41" s="13"/>
@@ -1791,14 +1917,14 @@
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C42" s="4">
         <v>9</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H42" s="13"/>
@@ -1806,14 +1932,14 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <v>10</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H43" s="13"/>
@@ -1821,7 +1947,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1967,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
         <v>9</v>
       </c>
@@ -1856,8 +1982,8 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
@@ -1876,8 +2002,36 @@
       <c r="G48" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M48" s="42"/>
+      <c r="N48" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U48" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="18">
         <v>1</v>
       </c>
@@ -1895,8 +2049,37 @@
         <f>POWER(F49,2)</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M49" s="43"/>
+      <c r="N49" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="32">
+        <v>116</v>
+      </c>
+      <c r="P49" s="32">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="32">
+        <v>93</v>
+      </c>
+      <c r="R49" s="32">
+        <v>64</v>
+      </c>
+      <c r="S49" s="32">
+        <v>103</v>
+      </c>
+      <c r="T49" s="32">
+        <v>194</v>
+      </c>
+      <c r="U49" s="32">
+        <v>66</v>
+      </c>
+      <c r="V49" s="32">
+        <f>U49+T49</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="15">
         <v>2</v>
       </c>
@@ -1907,15 +2090,44 @@
         <v>8</v>
       </c>
       <c r="F50" s="26">
-        <f t="shared" ref="F50:F67" si="6">D50-E50</f>
+        <f t="shared" ref="F50:F67" si="5">D50-E50</f>
         <v>-2</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" ref="G50:G67" si="7">POWER(F50,2)</f>
+        <f t="shared" ref="G50:G67" si="6">POWER(F50,2)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M50" s="43"/>
+      <c r="N50" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="32">
+        <v>125</v>
+      </c>
+      <c r="P50" s="32">
+        <v>35</v>
+      </c>
+      <c r="Q50" s="32">
+        <v>87</v>
+      </c>
+      <c r="R50" s="32">
+        <v>73</v>
+      </c>
+      <c r="S50" s="32">
+        <v>99</v>
+      </c>
+      <c r="T50" s="32">
+        <v>199</v>
+      </c>
+      <c r="U50" s="32">
+        <v>60</v>
+      </c>
+      <c r="V50" s="32">
+        <f>U50+T50</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="15">
         <v>3</v>
       </c>
@@ -1926,15 +2138,44 @@
         <v>17</v>
       </c>
       <c r="F51" s="26">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="G51" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="G51" s="5">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M51" s="43"/>
+      <c r="N51" s="40">
+        <v>-30</v>
+      </c>
+      <c r="O51" s="32">
+        <v>129</v>
+      </c>
+      <c r="P51" s="32">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="32">
+        <v>92</v>
+      </c>
+      <c r="R51" s="32">
+        <v>68</v>
+      </c>
+      <c r="S51" s="32">
+        <v>100</v>
+      </c>
+      <c r="T51" s="32">
+        <v>205</v>
+      </c>
+      <c r="U51" s="32">
+        <v>55</v>
+      </c>
+      <c r="V51" s="32">
+        <f t="shared" ref="V51:V55" si="7">U51+T51</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="15">
         <v>4</v>
       </c>
@@ -1945,15 +2186,44 @@
         <v>6</v>
       </c>
       <c r="F52" s="26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G52" s="5">
+        <v>4</v>
+      </c>
+      <c r="M52" s="43"/>
+      <c r="N52" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="32">
+        <v>124</v>
+      </c>
+      <c r="P52" s="32">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="32">
+        <v>151</v>
+      </c>
+      <c r="R52" s="32">
+        <v>8</v>
+      </c>
+      <c r="S52" s="32">
+        <v>102</v>
+      </c>
+      <c r="T52" s="32">
+        <v>232</v>
+      </c>
+      <c r="U52" s="32">
+        <v>32</v>
+      </c>
+      <c r="V52" s="32">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="15">
         <v>5</v>
       </c>
@@ -1964,15 +2234,44 @@
         <v>7</v>
       </c>
       <c r="F53" s="26">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G53" s="5">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="G53" s="5">
+        <v>49</v>
+      </c>
+      <c r="M53" s="43"/>
+      <c r="N53" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="32">
+        <v>124</v>
+      </c>
+      <c r="P53" s="32">
+        <v>35</v>
+      </c>
+      <c r="Q53" s="32">
+        <v>87</v>
+      </c>
+      <c r="R53" s="32">
+        <v>72</v>
+      </c>
+      <c r="S53" s="32">
+        <v>99</v>
+      </c>
+      <c r="T53" s="32">
+        <v>201</v>
+      </c>
+      <c r="U53" s="32">
+        <v>57</v>
+      </c>
+      <c r="V53" s="32">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="15">
         <v>6</v>
       </c>
@@ -1983,15 +2282,44 @@
         <v>12</v>
       </c>
       <c r="F54" s="26">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="G54" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
-      </c>
-      <c r="G54" s="5">
+        <v>64</v>
+      </c>
+      <c r="M54" s="43"/>
+      <c r="N54" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="O54" s="32">
+        <v>119</v>
+      </c>
+      <c r="P54" s="32">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="32">
+        <v>86</v>
+      </c>
+      <c r="R54" s="32">
+        <v>73</v>
+      </c>
+      <c r="S54" s="32">
+        <v>99</v>
+      </c>
+      <c r="T54" s="32">
+        <v>200</v>
+      </c>
+      <c r="U54" s="32">
+        <v>58</v>
+      </c>
+      <c r="V54" s="32">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="15">
         <v>7</v>
       </c>
@@ -2002,15 +2330,44 @@
         <v>11</v>
       </c>
       <c r="F55" s="26">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="G55" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="G55" s="5">
+        <v>16</v>
+      </c>
+      <c r="M55" s="43"/>
+      <c r="N55" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="33">
+        <v>103</v>
+      </c>
+      <c r="P55" s="33">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>80</v>
+      </c>
+      <c r="R55" s="33">
+        <v>63</v>
+      </c>
+      <c r="S55" s="33">
+        <v>96</v>
+      </c>
+      <c r="T55" s="33">
+        <v>186</v>
+      </c>
+      <c r="U55" s="33">
+        <v>53</v>
+      </c>
+      <c r="V55" s="32">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="15">
         <v>8</v>
       </c>
@@ -2021,15 +2378,24 @@
         <v>2</v>
       </c>
       <c r="F56" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G56" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+    </row>
+    <row r="57" spans="3:22" ht="48" x14ac:dyDescent="0.2">
       <c r="C57" s="15">
         <v>9</v>
       </c>
@@ -2040,15 +2406,43 @@
         <v>1</v>
       </c>
       <c r="F57" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G57" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M57" s="42"/>
+      <c r="N57" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="V57" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="15">
         <v>10</v>
       </c>
@@ -2059,15 +2453,47 @@
         <v>13</v>
       </c>
       <c r="F58" s="26">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="G58" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="G58" s="5">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M58" s="43"/>
+      <c r="N58" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" s="38">
+        <f>O49/159</f>
+        <v>0.72955974842767291</v>
+      </c>
+      <c r="P58" s="38">
+        <f t="shared" ref="P58:R59" si="8">P49/159</f>
+        <v>0.25786163522012578</v>
+      </c>
+      <c r="Q58" s="38">
+        <f t="shared" si="8"/>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="R58" s="38">
+        <f t="shared" si="8"/>
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="S58" s="32">
+        <v>94</v>
+      </c>
+      <c r="T58" s="38">
+        <f>T49/264</f>
+        <v>0.73484848484848486</v>
+      </c>
+      <c r="U58" s="38">
+        <f>U49/264</f>
+        <v>0.25</v>
+      </c>
+      <c r="V58" s="32"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="15">
         <v>11</v>
       </c>
@@ -2078,15 +2504,47 @@
         <v>3</v>
       </c>
       <c r="F59" s="26">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G59" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="G59" s="5">
-        <f t="shared" si="7"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M59" s="43"/>
+      <c r="N59" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="38">
+        <f>O50/159</f>
+        <v>0.78616352201257866</v>
+      </c>
+      <c r="P59" s="38">
+        <f t="shared" si="8"/>
+        <v>0.22012578616352202</v>
+      </c>
+      <c r="Q59" s="38">
+        <f t="shared" si="8"/>
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="R59" s="38">
+        <f t="shared" si="8"/>
+        <v>0.45911949685534592</v>
+      </c>
+      <c r="S59" s="32">
+        <v>95</v>
+      </c>
+      <c r="T59" s="38">
+        <f>T50/264</f>
+        <v>0.75378787878787878</v>
+      </c>
+      <c r="U59" s="38">
+        <f>U50/264</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="V59" s="32"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="15">
         <v>12</v>
       </c>
@@ -2097,15 +2555,47 @@
         <v>19</v>
       </c>
       <c r="F60" s="26">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="G60" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="G60" s="5">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M60" s="43"/>
+      <c r="N60" s="40">
+        <v>-30</v>
+      </c>
+      <c r="O60" s="38">
+        <f t="shared" ref="O60:U64" si="9">O51/159</f>
+        <v>0.81132075471698117</v>
+      </c>
+      <c r="P60" s="38">
+        <f t="shared" ref="P60:R60" si="10">P51/159</f>
+        <v>0.19496855345911951</v>
+      </c>
+      <c r="Q60" s="38">
+        <f t="shared" si="10"/>
+        <v>0.57861635220125784</v>
+      </c>
+      <c r="R60" s="38">
+        <f t="shared" si="10"/>
+        <v>0.42767295597484278</v>
+      </c>
+      <c r="S60" s="32">
+        <v>98</v>
+      </c>
+      <c r="T60" s="38">
+        <f t="shared" ref="T60:U64" si="11">T51/264</f>
+        <v>0.77651515151515149</v>
+      </c>
+      <c r="U60" s="38">
+        <f t="shared" si="11"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V60" s="32"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="15">
         <v>13</v>
       </c>
@@ -2116,15 +2606,47 @@
         <v>16</v>
       </c>
       <c r="F61" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G61" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M61" s="43"/>
+      <c r="N61" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="38">
+        <f t="shared" si="9"/>
+        <v>0.77987421383647804</v>
+      </c>
+      <c r="P61" s="38">
+        <f t="shared" ref="P61:R61" si="12">P52/159</f>
+        <v>0.22012578616352202</v>
+      </c>
+      <c r="Q61" s="38">
+        <f t="shared" si="12"/>
+        <v>0.94968553459119498</v>
+      </c>
+      <c r="R61" s="38">
+        <f t="shared" si="12"/>
+        <v>5.0314465408805034E-2</v>
+      </c>
+      <c r="S61" s="32">
+        <v>102</v>
+      </c>
+      <c r="T61" s="38">
+        <f t="shared" si="11"/>
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="U61" s="38">
+        <f t="shared" si="11"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="V61" s="32"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="15">
         <v>14</v>
       </c>
@@ -2135,15 +2657,47 @@
         <v>5</v>
       </c>
       <c r="F62" s="26">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="G62" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="G62" s="5">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M62" s="43"/>
+      <c r="N62" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="38">
+        <f t="shared" si="9"/>
+        <v>0.77987421383647804</v>
+      </c>
+      <c r="P62" s="38">
+        <f t="shared" ref="P62:R62" si="13">P53/159</f>
+        <v>0.22012578616352202</v>
+      </c>
+      <c r="Q62" s="38">
+        <f t="shared" si="13"/>
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="R62" s="38">
+        <f t="shared" si="13"/>
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="S62" s="32">
+        <v>94</v>
+      </c>
+      <c r="T62" s="38">
+        <f t="shared" si="11"/>
+        <v>0.76136363636363635</v>
+      </c>
+      <c r="U62" s="38">
+        <f t="shared" si="11"/>
+        <v>0.21590909090909091</v>
+      </c>
+      <c r="V62" s="32"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="15">
         <v>15</v>
       </c>
@@ -2154,15 +2708,47 @@
         <v>15</v>
       </c>
       <c r="F63" s="26">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="G63" s="5">
         <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="G63" s="5">
-        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M63" s="43"/>
+      <c r="N63" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="O63" s="38">
+        <f t="shared" si="9"/>
+        <v>0.74842767295597479</v>
+      </c>
+      <c r="P63" s="38">
+        <f t="shared" ref="P63:R63" si="14">P54/159</f>
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="Q63" s="38">
+        <f t="shared" si="14"/>
+        <v>0.54088050314465408</v>
+      </c>
+      <c r="R63" s="38">
+        <f t="shared" si="14"/>
+        <v>0.45911949685534592</v>
+      </c>
+      <c r="S63" s="32">
+        <v>99</v>
+      </c>
+      <c r="T63" s="38">
+        <f t="shared" si="11"/>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="U63" s="38">
+        <f t="shared" si="11"/>
+        <v>0.2196969696969697</v>
+      </c>
+      <c r="V63" s="32"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="15">
         <v>16</v>
       </c>
@@ -2173,15 +2759,47 @@
         <v>4</v>
       </c>
       <c r="F64" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G64" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G64" s="5">
-        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="M64" s="43"/>
+      <c r="N64" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" s="38">
+        <f t="shared" si="9"/>
+        <v>0.64779874213836475</v>
+      </c>
+      <c r="P64" s="38">
+        <f t="shared" ref="P64:R64" si="15">P55/159</f>
+        <v>0.25157232704402516</v>
+      </c>
+      <c r="Q64" s="38">
+        <f t="shared" si="15"/>
+        <v>0.50314465408805031</v>
+      </c>
+      <c r="R64" s="38">
+        <f t="shared" si="15"/>
+        <v>0.39622641509433965</v>
+      </c>
+      <c r="S64" s="32">
+        <v>96</v>
+      </c>
+      <c r="T64" s="38">
+        <f t="shared" si="11"/>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="U64" s="38">
+        <f t="shared" si="11"/>
+        <v>0.20075757575757575</v>
+      </c>
+      <c r="V64" s="32"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C65" s="15">
         <v>17</v>
       </c>
@@ -2192,15 +2810,15 @@
         <v>9</v>
       </c>
       <c r="F65" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G65" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" s="15">
         <v>18</v>
       </c>
@@ -2211,15 +2829,15 @@
         <v>18</v>
       </c>
       <c r="F66" s="26">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="G66" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="G66" s="5">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="16">
         <v>19</v>
       </c>
@@ -2230,15 +2848,40 @@
         <v>14</v>
       </c>
       <c r="F67" s="27">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G67" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G67" s="8">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="O67" s="32">
+        <v>112</v>
+      </c>
+      <c r="P67" s="32">
+        <v>47</v>
+      </c>
+      <c r="Q67" s="32">
+        <v>96</v>
+      </c>
+      <c r="R67" s="32">
+        <v>63</v>
+      </c>
+      <c r="S67" s="32">
+        <v>103</v>
+      </c>
+      <c r="T67" s="32">
+        <v>204</v>
+      </c>
+      <c r="U67" s="32">
+        <v>58</v>
+      </c>
+      <c r="V67" s="32">
+        <f>U67+T67</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="G68" s="2">
         <f>SUM(G49:G67)</f>
         <v>486</v>
@@ -2247,8 +2890,33 @@
         <f>6*G68</f>
         <v>2916</v>
       </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="O68" s="32">
+        <v>111</v>
+      </c>
+      <c r="P68" s="32">
+        <v>46</v>
+      </c>
+      <c r="Q68" s="32">
+        <v>86</v>
+      </c>
+      <c r="R68" s="32">
+        <v>71</v>
+      </c>
+      <c r="S68" s="32">
+        <v>101</v>
+      </c>
+      <c r="T68" s="32">
+        <v>195</v>
+      </c>
+      <c r="U68" s="32">
+        <v>63</v>
+      </c>
+      <c r="V68" s="32">
+        <f t="shared" ref="V68" si="16">U68+T68</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="H69" s="2">
         <f>19*(19*19-1)</f>
         <v>6840</v>
@@ -2262,5 +2930,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="N49:N64" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Resources/Resources for dissertation/Evaluation.xlsx
+++ b/Resources/Resources for dissertation/Evaluation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>Image</t>
   </si>
@@ -168,6 +168,87 @@
   </si>
   <si>
     <t>Total Correct Detections</t>
+  </si>
+  <si>
+    <t>Labelling of videos</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Mum</t>
+  </si>
+  <si>
+    <t>vid1short</t>
+  </si>
+  <si>
+    <t>vid2short</t>
+  </si>
+  <si>
+    <t>vid3short</t>
+  </si>
+  <si>
+    <t>vid4short</t>
+  </si>
+  <si>
+    <t>vid5short</t>
+  </si>
+  <si>
+    <t>vid6short</t>
+  </si>
+  <si>
+    <t>vid7short</t>
+  </si>
+  <si>
+    <t>vid8short</t>
+  </si>
+  <si>
+    <t>vid9short</t>
+  </si>
+  <si>
+    <t>Labeller</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>(first 6 digits)</t>
+  </si>
+  <si>
+    <t>Label conv</t>
+  </si>
+  <si>
+    <t>Comp conv</t>
+  </si>
+  <si>
+    <t>With mround</t>
+  </si>
+  <si>
+    <t>Without mround</t>
+  </si>
+  <si>
+    <t>Calc mod</t>
+  </si>
+  <si>
+    <t>With the mod (changing the division number), the results are much better, except for a few outliers</t>
+  </si>
+  <si>
+    <t>pos/neg</t>
+  </si>
+  <si>
+    <t>Correct/false</t>
   </si>
 </sst>
 </file>
@@ -197,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -516,11 +597,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -625,6 +808,84 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J46" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5">
-        <f>O20*N20</f>
+        <f t="shared" ref="P20:P29" si="2">O20*N20</f>
         <v>0</v>
       </c>
     </row>
@@ -1442,7 +1703,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="5">
-        <f t="shared" ref="F21:F29" si="2">E21*D21</f>
+        <f t="shared" ref="F21:F29" si="3">E21*D21</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
@@ -1451,7 +1712,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="5">
-        <f t="shared" ref="K21:K29" si="3">J21*I21</f>
+        <f t="shared" ref="K21:K29" si="4">J21*I21</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
@@ -1460,7 +1721,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="5">
-        <f>O21*N21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1471,7 +1732,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="4">
@@ -1480,7 +1741,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
@@ -1489,7 +1750,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="5">
-        <f>O22*N22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1761,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="4">
@@ -1509,7 +1770,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="4">
@@ -1518,7 +1779,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="5">
-        <f>O23*N23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1529,7 +1790,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="4">
@@ -1538,7 +1799,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="4">
@@ -1547,7 +1808,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="5">
-        <f>O24*N24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1558,7 +1819,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -1567,7 +1828,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25" s="4">
@@ -1576,7 +1837,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="5">
-        <f>O25*N25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1587,7 +1848,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -1596,7 +1857,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26" s="4">
@@ -1605,7 +1866,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="5">
-        <f>O26*N26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1616,7 +1877,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="4">
@@ -1625,7 +1886,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27" s="4">
@@ -1634,7 +1895,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="5">
-        <f>O27*N27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1645,7 +1906,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="4">
@@ -1654,7 +1915,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28" s="4">
@@ -1663,7 +1924,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="5">
-        <f>O28*N28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1674,7 +1935,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="4">
@@ -1683,7 +1944,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29" s="4">
@@ -1692,7 +1953,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="5">
-        <f>O29*N29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1819,7 +2080,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="5">
-        <f t="shared" ref="F35:F43" si="4">E35*D35</f>
+        <f t="shared" ref="F35:F43" si="5">E35*D35</f>
         <v>0</v>
       </c>
       <c r="H35" s="13"/>
@@ -1834,7 +2095,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H36" s="13"/>
@@ -1849,7 +2110,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37" s="13"/>
@@ -1864,7 +2125,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H38" s="13"/>
@@ -1879,7 +2140,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39" s="13"/>
@@ -1894,7 +2155,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40" s="13"/>
@@ -1909,7 +2170,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41" s="13"/>
@@ -1924,7 +2185,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="13"/>
@@ -1939,7 +2200,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43" s="13"/>
@@ -2090,11 +2351,11 @@
         <v>8</v>
       </c>
       <c r="F50" s="26">
-        <f t="shared" ref="F50:F67" si="5">D50-E50</f>
+        <f t="shared" ref="F50:F67" si="6">D50-E50</f>
         <v>-2</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" ref="G50:G67" si="6">POWER(F50,2)</f>
+        <f t="shared" ref="G50:G67" si="7">POWER(F50,2)</f>
         <v>4</v>
       </c>
       <c r="M50" s="43"/>
@@ -2138,11 +2399,11 @@
         <v>17</v>
       </c>
       <c r="F51" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="M51" s="43"/>
@@ -2171,7 +2432,7 @@
         <v>55</v>
       </c>
       <c r="V51" s="32">
-        <f t="shared" ref="V51:V55" si="7">U51+T51</f>
+        <f t="shared" ref="V51:V55" si="8">U51+T51</f>
         <v>260</v>
       </c>
     </row>
@@ -2186,11 +2447,11 @@
         <v>6</v>
       </c>
       <c r="F52" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="M52" s="43"/>
@@ -2219,7 +2480,7 @@
         <v>32</v>
       </c>
       <c r="V52" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>264</v>
       </c>
     </row>
@@ -2234,11 +2495,11 @@
         <v>7</v>
       </c>
       <c r="F53" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="M53" s="43"/>
@@ -2267,7 +2528,7 @@
         <v>57</v>
       </c>
       <c r="V53" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
     </row>
@@ -2282,11 +2543,11 @@
         <v>12</v>
       </c>
       <c r="F54" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="M54" s="43"/>
@@ -2315,7 +2576,7 @@
         <v>58</v>
       </c>
       <c r="V54" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
     </row>
@@ -2330,11 +2591,11 @@
         <v>11</v>
       </c>
       <c r="F55" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="M55" s="43"/>
@@ -2363,7 +2624,7 @@
         <v>53</v>
       </c>
       <c r="V55" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
     </row>
@@ -2378,11 +2639,11 @@
         <v>2</v>
       </c>
       <c r="F56" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M56" s="34"/>
@@ -2406,11 +2667,11 @@
         <v>1</v>
       </c>
       <c r="F57" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M57" s="42"/>
@@ -2453,11 +2714,11 @@
         <v>13</v>
       </c>
       <c r="F58" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="M58" s="43"/>
@@ -2469,15 +2730,15 @@
         <v>0.72955974842767291</v>
       </c>
       <c r="P58" s="38">
-        <f t="shared" ref="P58:R59" si="8">P49/159</f>
+        <f t="shared" ref="P58:R59" si="9">P49/159</f>
         <v>0.25786163522012578</v>
       </c>
       <c r="Q58" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58490566037735847</v>
       </c>
       <c r="R58" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.40251572327044027</v>
       </c>
       <c r="S58" s="32">
@@ -2504,11 +2765,11 @@
         <v>3</v>
       </c>
       <c r="F59" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="M59" s="43"/>
@@ -2520,15 +2781,15 @@
         <v>0.78616352201257866</v>
       </c>
       <c r="P59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22012578616352202</v>
       </c>
       <c r="Q59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54716981132075471</v>
       </c>
       <c r="R59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45911949685534592</v>
       </c>
       <c r="S59" s="32">
@@ -2555,11 +2816,11 @@
         <v>19</v>
       </c>
       <c r="F60" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="M60" s="43"/>
@@ -2567,30 +2828,30 @@
         <v>-30</v>
       </c>
       <c r="O60" s="38">
-        <f t="shared" ref="O60:U64" si="9">O51/159</f>
+        <f t="shared" ref="O60:O64" si="10">O51/159</f>
         <v>0.81132075471698117</v>
       </c>
       <c r="P60" s="38">
-        <f t="shared" ref="P60:R60" si="10">P51/159</f>
+        <f t="shared" ref="P60:R60" si="11">P51/159</f>
         <v>0.19496855345911951</v>
       </c>
       <c r="Q60" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.57861635220125784</v>
       </c>
       <c r="R60" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42767295597484278</v>
       </c>
       <c r="S60" s="32">
         <v>98</v>
       </c>
       <c r="T60" s="38">
-        <f t="shared" ref="T60:U64" si="11">T51/264</f>
+        <f t="shared" ref="T60:U64" si="12">T51/264</f>
         <v>0.77651515151515149</v>
       </c>
       <c r="U60" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="V60" s="32"/>
@@ -2606,11 +2867,11 @@
         <v>16</v>
       </c>
       <c r="F61" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M61" s="43"/>
@@ -2618,30 +2879,30 @@
         <v>33</v>
       </c>
       <c r="O61" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77987421383647804</v>
       </c>
       <c r="P61" s="38">
-        <f t="shared" ref="P61:R61" si="12">P52/159</f>
+        <f t="shared" ref="P61:R61" si="13">P52/159</f>
         <v>0.22012578616352202</v>
       </c>
       <c r="Q61" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.94968553459119498</v>
       </c>
       <c r="R61" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.0314465408805034E-2</v>
       </c>
       <c r="S61" s="32">
         <v>102</v>
       </c>
       <c r="T61" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.87878787878787878</v>
       </c>
       <c r="U61" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12121212121212122</v>
       </c>
       <c r="V61" s="32"/>
@@ -2657,11 +2918,11 @@
         <v>5</v>
       </c>
       <c r="F62" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="M62" s="43"/>
@@ -2669,30 +2930,30 @@
         <v>41</v>
       </c>
       <c r="O62" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77987421383647804</v>
       </c>
       <c r="P62" s="38">
-        <f t="shared" ref="P62:R62" si="13">P53/159</f>
+        <f t="shared" ref="P62:R62" si="14">P53/159</f>
         <v>0.22012578616352202</v>
       </c>
       <c r="Q62" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.54716981132075471</v>
       </c>
       <c r="R62" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.45283018867924529</v>
       </c>
       <c r="S62" s="32">
         <v>94</v>
       </c>
       <c r="T62" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.76136363636363635</v>
       </c>
       <c r="U62" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21590909090909091</v>
       </c>
       <c r="V62" s="32"/>
@@ -2708,11 +2969,11 @@
         <v>15</v>
       </c>
       <c r="F63" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="M63" s="43"/>
@@ -2720,30 +2981,30 @@
         <v>43</v>
       </c>
       <c r="O63" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.74842767295597479</v>
       </c>
       <c r="P63" s="38">
-        <f t="shared" ref="P63:R63" si="14">P54/159</f>
+        <f t="shared" ref="P63:R63" si="15">P54/159</f>
         <v>0.24528301886792453</v>
       </c>
       <c r="Q63" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.54088050314465408</v>
       </c>
       <c r="R63" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.45911949685534592</v>
       </c>
       <c r="S63" s="32">
         <v>99</v>
       </c>
       <c r="T63" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="U63" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2196969696969697</v>
       </c>
       <c r="V63" s="32"/>
@@ -2759,11 +3020,11 @@
         <v>4</v>
       </c>
       <c r="F64" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="M64" s="43"/>
@@ -2771,35 +3032,35 @@
         <v>44</v>
       </c>
       <c r="O64" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.64779874213836475</v>
       </c>
       <c r="P64" s="38">
-        <f t="shared" ref="P64:R64" si="15">P55/159</f>
+        <f t="shared" ref="P64:R64" si="16">P55/159</f>
         <v>0.25157232704402516</v>
       </c>
       <c r="Q64" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50314465408805031</v>
       </c>
       <c r="R64" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.39622641509433965</v>
       </c>
       <c r="S64" s="32">
         <v>96</v>
       </c>
       <c r="T64" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.70454545454545459</v>
       </c>
       <c r="U64" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.20075757575757575</v>
       </c>
       <c r="V64" s="32"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C65" s="15">
         <v>17</v>
       </c>
@@ -2810,15 +3071,15 @@
         <v>9</v>
       </c>
       <c r="F65" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G65" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C66" s="15">
         <v>18</v>
       </c>
@@ -2829,30 +3090,30 @@
         <v>18</v>
       </c>
       <c r="F66" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="G66" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="16">
+        <v>19</v>
+      </c>
+      <c r="D67" s="17">
+        <v>18</v>
+      </c>
+      <c r="E67" s="30">
+        <v>14</v>
+      </c>
+      <c r="F67" s="27">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="3:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="16">
-        <v>19</v>
-      </c>
-      <c r="D67" s="17">
-        <v>18</v>
-      </c>
-      <c r="E67" s="30">
-        <v>14</v>
-      </c>
-      <c r="F67" s="27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="G67" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="O67" s="32">
@@ -2881,7 +3142,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G68" s="2">
         <f>SUM(G49:G67)</f>
         <v>486</v>
@@ -2912,11 +3173,11 @@
         <v>63</v>
       </c>
       <c r="V68" s="32">
-        <f t="shared" ref="V68" si="16">U68+T68</f>
+        <f t="shared" ref="V68" si="17">U68+T68</f>
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H69" s="2">
         <f>19*(19*19-1)</f>
         <v>6840</v>
@@ -2926,7 +3187,673 @@
         <v>0.5736842105263158</v>
       </c>
     </row>
+    <row r="72" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I73" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="50">
+        <v>-0.449096</v>
+      </c>
+      <c r="E74" s="46">
+        <v>-0.14662700000000001</v>
+      </c>
+      <c r="F74" s="46">
+        <v>0.330675</v>
+      </c>
+      <c r="G74" s="46">
+        <v>0.36871300000000001</v>
+      </c>
+      <c r="H74" s="46">
+        <v>0.59172599999999997</v>
+      </c>
+      <c r="I74" s="46">
+        <v>1.2622E-2</v>
+      </c>
+      <c r="J74" s="46">
+        <v>-0.35360999999999998</v>
+      </c>
+      <c r="K74" s="46">
+        <v>0.34831600000000001</v>
+      </c>
+      <c r="L74" s="47">
+        <v>0.20685000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C75" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="51">
+        <f>D74/3*4</f>
+        <v>-0.5987946666666667</v>
+      </c>
+      <c r="E75" s="51">
+        <f t="shared" ref="E75:L75" si="18">E74/3*4</f>
+        <v>-0.19550266666666669</v>
+      </c>
+      <c r="F75" s="51">
+        <f t="shared" si="18"/>
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="G75" s="51">
+        <f t="shared" si="18"/>
+        <v>0.49161733333333335</v>
+      </c>
+      <c r="H75" s="51">
+        <f t="shared" si="18"/>
+        <v>0.788968</v>
+      </c>
+      <c r="I75" s="51">
+        <f t="shared" si="18"/>
+        <v>1.6829333333333332E-2</v>
+      </c>
+      <c r="J75" s="51">
+        <f t="shared" si="18"/>
+        <v>-0.47147999999999995</v>
+      </c>
+      <c r="K75" s="51">
+        <f t="shared" si="18"/>
+        <v>0.46442133333333335</v>
+      </c>
+      <c r="L75" s="51">
+        <f t="shared" si="18"/>
+        <v>0.27579999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C76" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="51">
+        <v>1</v>
+      </c>
+      <c r="E76" s="52">
+        <v>2</v>
+      </c>
+      <c r="F76" s="52">
+        <v>4</v>
+      </c>
+      <c r="G76" s="52">
+        <v>3</v>
+      </c>
+      <c r="H76" s="52">
+        <v>5</v>
+      </c>
+      <c r="I76" s="52">
+        <v>4</v>
+      </c>
+      <c r="J76" s="52">
+        <v>3</v>
+      </c>
+      <c r="K76" s="52">
+        <v>4</v>
+      </c>
+      <c r="L76" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C77" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="48">
+        <v>2</v>
+      </c>
+      <c r="E77" s="32">
+        <v>3</v>
+      </c>
+      <c r="F77" s="32">
+        <v>4</v>
+      </c>
+      <c r="G77" s="32">
+        <v>4</v>
+      </c>
+      <c r="H77" s="32">
+        <v>4</v>
+      </c>
+      <c r="I77" s="32">
+        <v>5</v>
+      </c>
+      <c r="J77" s="32">
+        <v>4</v>
+      </c>
+      <c r="K77" s="32">
+        <v>5</v>
+      </c>
+      <c r="L77" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C78" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="44"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C79" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="48"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="44"/>
+    </row>
+    <row r="80" spans="1:22" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="49"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="45"/>
+      <c r="N80" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="O80" s="68"/>
+    </row>
+    <row r="81" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="60">
+        <f>AVERAGE(D76:D80)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E81" s="61">
+        <f t="shared" ref="E81" si="19">AVERAGE(E76:E80)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F81" s="61">
+        <f t="shared" ref="F81" si="20">AVERAGE(F76:F80)</f>
+        <v>4</v>
+      </c>
+      <c r="G81" s="61">
+        <f t="shared" ref="G81" si="21">AVERAGE(G76:G80)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H81" s="61">
+        <f t="shared" ref="H81" si="22">AVERAGE(H76:H80)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I81" s="61">
+        <f t="shared" ref="I81" si="23">AVERAGE(I76:I80)</f>
+        <v>4.5</v>
+      </c>
+      <c r="J81" s="61">
+        <f t="shared" ref="J81" si="24">AVERAGE(J76:J80)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K81" s="61">
+        <f t="shared" ref="K81" si="25">AVERAGE(K76:K80)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L81" s="62">
+        <f t="shared" ref="L81" si="26">AVERAGE(L76:L80)</f>
+        <v>4.5</v>
+      </c>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+    </row>
+    <row r="82" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="32">
+        <f>MROUND((D81-1)/4, 0.2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E82" s="32">
+        <f>MROUND((E81-1)/4, 0.2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F82" s="32">
+        <f t="shared" ref="F82" si="27">MROUND((F81-1)/4, 0.2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G82" s="32">
+        <f t="shared" ref="G82" si="28">MROUND((G81-1)/4, 0.2)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H82" s="32">
+        <f t="shared" ref="H82" si="29">MROUND((H81-1)/4, 0.2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I82" s="32">
+        <f t="shared" ref="I82" si="30">MROUND((I81-1)/4, 0.2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J82" s="32">
+        <f t="shared" ref="J82" si="31">MROUND((J81-1)/4, 0.2)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K82" s="32">
+        <f t="shared" ref="K82" si="32">MROUND((K81-1)/4, 0.2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L82" s="32">
+        <f t="shared" ref="L82" si="33">MROUND((L81-1)/4, 0.2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+    </row>
+    <row r="83" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="63">
+        <f>MROUND((D75+1)/2, 0.2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="32">
+        <f>MROUND((E75+1)/2, 0.2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F83" s="32">
+        <f t="shared" ref="F83:K83" si="34">MROUND((F75+1)/2, 0.2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G83" s="32">
+        <f t="shared" si="34"/>
+        <v>0.8</v>
+      </c>
+      <c r="H83" s="32">
+        <f t="shared" si="34"/>
+        <v>0.8</v>
+      </c>
+      <c r="I83" s="32">
+        <f t="shared" si="34"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J83" s="32">
+        <f t="shared" si="34"/>
+        <v>0.2</v>
+      </c>
+      <c r="K83" s="32">
+        <f t="shared" si="34"/>
+        <v>0.8</v>
+      </c>
+      <c r="L83" s="44">
+        <f>MROUND((L75+1)/2, 0.2)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M83" s="58"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+    </row>
+    <row r="84" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="64">
+        <f>ABS(D82-D83)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="65">
+        <f t="shared" ref="E84" si="35">ABS(E82-E83)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="65">
+        <f t="shared" ref="F84" si="36">ABS(F82-F83)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="65">
+        <f t="shared" ref="G84" si="37">ABS(G82-G83)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H84" s="65">
+        <f t="shared" ref="H84" si="38">ABS(H82-H83)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="65">
+        <f t="shared" ref="I84" si="39">ABS(I82-I83)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J84" s="65">
+        <f t="shared" ref="J84" si="40">ABS(J82-J83)</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="K84" s="65">
+        <f t="shared" ref="K84" si="41">ABS(K82-K83)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="66">
+        <f t="shared" ref="L84" si="42">ABS(L82-L83)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M84" s="67">
+        <f>AVERAGE(D84:L84)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+    </row>
+    <row r="85" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="32">
+        <f>(D81-1)/4</f>
+        <v>0.125</v>
+      </c>
+      <c r="E85" s="32">
+        <f t="shared" ref="E85:L85" si="43">(E81-1)/4</f>
+        <v>0.375</v>
+      </c>
+      <c r="F85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.75</v>
+      </c>
+      <c r="G85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.625</v>
+      </c>
+      <c r="H85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.875</v>
+      </c>
+      <c r="I85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.875</v>
+      </c>
+      <c r="J85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.625</v>
+      </c>
+      <c r="K85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.875</v>
+      </c>
+      <c r="L85" s="32">
+        <f t="shared" si="43"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="63">
+        <f>(D75+1)/2</f>
+        <v>0.20060266666666665</v>
+      </c>
+      <c r="E86" s="63">
+        <f t="shared" ref="E86:L86" si="44">(E75+1)/2</f>
+        <v>0.40224866666666664</v>
+      </c>
+      <c r="F86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.72045000000000003</v>
+      </c>
+      <c r="G86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.74580866666666668</v>
+      </c>
+      <c r="H86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.89448400000000006</v>
+      </c>
+      <c r="I86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.50841466666666668</v>
+      </c>
+      <c r="J86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.26426000000000005</v>
+      </c>
+      <c r="K86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.73221066666666668</v>
+      </c>
+      <c r="L86" s="63">
+        <f t="shared" si="44"/>
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="M86" s="67"/>
+    </row>
+    <row r="87" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="64">
+        <f>ABS(D85-D86)</f>
+        <v>7.5602666666666651E-2</v>
+      </c>
+      <c r="E87" s="65">
+        <f t="shared" ref="E87" si="45">ABS(E85-E86)</f>
+        <v>2.7248666666666643E-2</v>
+      </c>
+      <c r="F87" s="65">
+        <f t="shared" ref="F87" si="46">ABS(F85-F86)</f>
+        <v>2.9549999999999965E-2</v>
+      </c>
+      <c r="G87" s="65">
+        <f t="shared" ref="G87" si="47">ABS(G85-G86)</f>
+        <v>0.12080866666666668</v>
+      </c>
+      <c r="H87" s="65">
+        <f t="shared" ref="H87" si="48">ABS(H85-H86)</f>
+        <v>1.9484000000000057E-2</v>
+      </c>
+      <c r="I87" s="65">
+        <f t="shared" ref="I87" si="49">ABS(I85-I86)</f>
+        <v>0.36658533333333332</v>
+      </c>
+      <c r="J87" s="65">
+        <f t="shared" ref="J87" si="50">ABS(J85-J86)</f>
+        <v>0.36073999999999995</v>
+      </c>
+      <c r="K87" s="65">
+        <f t="shared" ref="K87" si="51">ABS(K85-K86)</f>
+        <v>0.14278933333333332</v>
+      </c>
+      <c r="L87" s="66">
+        <f t="shared" ref="L87" si="52">ABS(L85-L86)</f>
+        <v>0.23709999999999998</v>
+      </c>
+      <c r="M87" s="67">
+        <f>AVERAGE(D87:L87)</f>
+        <v>0.15332318518518517</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="32">
+        <f>ROUND(D85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="32">
+        <f t="shared" ref="E88:L88" si="53">ROUND(E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="J88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="L88" s="32">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="63">
+        <f>ROUND(D86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="63">
+        <f t="shared" ref="E89:L89" si="54">ROUND(E86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="63">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G89" s="63">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="63">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="63">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J89" s="63">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="63">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="L89" s="63">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="64">
+        <f>IF(D89=D88, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="64">
+        <f t="shared" ref="E90:L90" si="55">IF(E89=E88, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F90" s="64">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="64">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="64">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="64">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="64">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="64">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="L90" s="64">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="M90" s="69">
+        <f>AVERAGE(D90:L90)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N80:O84"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Resources/Resources for dissertation/Evaluation.xlsx
+++ b/Resources/Resources for dissertation/Evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +265,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,8 +716,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -882,14 +902,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1168,7 +1192,7 @@
   <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3304,7 +3328,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="52">
         <v>2</v>
@@ -3367,47 +3391,101 @@
       <c r="C78" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="44"/>
+      <c r="D78" s="48">
+        <v>2</v>
+      </c>
+      <c r="E78" s="32">
+        <v>3</v>
+      </c>
+      <c r="F78" s="32">
+        <v>5</v>
+      </c>
+      <c r="G78" s="32">
+        <v>4</v>
+      </c>
+      <c r="H78" s="32">
+        <v>5</v>
+      </c>
+      <c r="I78" s="32">
+        <v>4</v>
+      </c>
+      <c r="J78" s="32">
+        <v>3</v>
+      </c>
+      <c r="K78" s="32">
+        <v>5</v>
+      </c>
+      <c r="L78" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C79" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D79" s="48"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="44"/>
+      <c r="D79" s="48">
+        <v>2</v>
+      </c>
+      <c r="E79" s="32">
+        <v>3</v>
+      </c>
+      <c r="F79" s="32">
+        <v>4</v>
+      </c>
+      <c r="G79" s="32">
+        <v>4</v>
+      </c>
+      <c r="H79" s="32">
+        <v>4</v>
+      </c>
+      <c r="I79" s="32">
+        <v>4</v>
+      </c>
+      <c r="J79" s="32">
+        <v>3</v>
+      </c>
+      <c r="K79" s="32">
+        <v>5</v>
+      </c>
+      <c r="L79" s="44">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:22" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="45"/>
-      <c r="N80" s="68" t="s">
+      <c r="D80" s="49">
+        <v>2</v>
+      </c>
+      <c r="E80" s="33">
+        <v>3</v>
+      </c>
+      <c r="F80" s="33">
+        <v>4</v>
+      </c>
+      <c r="G80" s="33">
+        <v>4</v>
+      </c>
+      <c r="H80" s="33">
+        <v>5</v>
+      </c>
+      <c r="I80" s="33">
+        <v>4</v>
+      </c>
+      <c r="J80" s="33">
+        <v>3</v>
+      </c>
+      <c r="K80" s="33">
+        <v>4</v>
+      </c>
+      <c r="L80" s="45">
+        <v>5</v>
+      </c>
+      <c r="N80" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="O80" s="68"/>
+      <c r="O80" s="69"/>
     </row>
     <row r="81" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
@@ -3418,129 +3496,129 @@
       </c>
       <c r="D81" s="60">
         <f>AVERAGE(D76:D80)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E81" s="61">
         <f t="shared" ref="E81" si="19">AVERAGE(E76:E80)</f>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F81" s="61">
         <f t="shared" ref="F81" si="20">AVERAGE(F76:F80)</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G81" s="61">
         <f t="shared" ref="G81" si="21">AVERAGE(G76:G80)</f>
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H81" s="61">
         <f t="shared" ref="H81" si="22">AVERAGE(H76:H80)</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I81" s="61">
         <f t="shared" ref="I81" si="23">AVERAGE(I76:I80)</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J81" s="61">
         <f t="shared" ref="J81" si="24">AVERAGE(J76:J80)</f>
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K81" s="61">
         <f t="shared" ref="K81" si="25">AVERAGE(K76:K80)</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L81" s="62">
         <f t="shared" ref="L81" si="26">AVERAGE(L76:L80)</f>
-        <v>4.5</v>
-      </c>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
     </row>
     <row r="82" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" s="59" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="32">
-        <f>MROUND((D81-1)/4, 0.2)</f>
-        <v>0.2</v>
+        <f>MROUND((D81-1)/4, 0.25)</f>
+        <v>0.25</v>
       </c>
       <c r="E82" s="32">
-        <f>MROUND((E81-1)/4, 0.2)</f>
-        <v>0.4</v>
+        <f t="shared" ref="E82:L82" si="27">MROUND((E81-1)/4, 0.25)</f>
+        <v>0.5</v>
       </c>
       <c r="F82" s="32">
-        <f t="shared" ref="F82" si="27">MROUND((F81-1)/4, 0.2)</f>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>0.75</v>
       </c>
       <c r="G82" s="32">
-        <f t="shared" ref="G82" si="28">MROUND((G81-1)/4, 0.2)</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="27"/>
+        <v>0.75</v>
       </c>
       <c r="H82" s="32">
-        <f t="shared" ref="H82" si="29">MROUND((H81-1)/4, 0.2)</f>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="I82" s="32">
-        <f t="shared" ref="I82" si="30">MROUND((I81-1)/4, 0.2)</f>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>0.75</v>
       </c>
       <c r="J82" s="32">
-        <f t="shared" ref="J82" si="31">MROUND((J81-1)/4, 0.2)</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="27"/>
+        <v>0.5</v>
       </c>
       <c r="K82" s="32">
-        <f t="shared" ref="K82" si="32">MROUND((K81-1)/4, 0.2)</f>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="L82" s="32">
-        <f t="shared" ref="L82" si="33">MROUND((L81-1)/4, 0.2)</f>
-        <v>0.8</v>
-      </c>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
     </row>
     <row r="83" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="59" t="s">
         <v>67</v>
       </c>
       <c r="D83" s="63">
-        <f>MROUND((D75+1)/2, 0.2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E83" s="32">
-        <f>MROUND((E75+1)/2, 0.2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F83" s="32">
-        <f t="shared" ref="F83:K83" si="34">MROUND((F75+1)/2, 0.2)</f>
-        <v>0.8</v>
-      </c>
-      <c r="G83" s="32">
-        <f t="shared" si="34"/>
-        <v>0.8</v>
-      </c>
-      <c r="H83" s="32">
-        <f t="shared" si="34"/>
-        <v>0.8</v>
-      </c>
-      <c r="I83" s="32">
-        <f t="shared" si="34"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J83" s="32">
-        <f t="shared" si="34"/>
-        <v>0.2</v>
-      </c>
-      <c r="K83" s="32">
-        <f t="shared" si="34"/>
-        <v>0.8</v>
-      </c>
-      <c r="L83" s="44">
-        <f>MROUND((L75+1)/2, 0.2)</f>
-        <v>0.60000000000000009</v>
+        <f>MROUND((D75+1)/2, 0.25)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E83" s="63">
+        <f t="shared" ref="E83:L83" si="28">MROUND((E75+1)/2, 0.25)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F83" s="63">
+        <f t="shared" si="28"/>
+        <v>0.75</v>
+      </c>
+      <c r="G83" s="63">
+        <f t="shared" si="28"/>
+        <v>0.75</v>
+      </c>
+      <c r="H83" s="63">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="63">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="J83" s="63">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="K83" s="63">
+        <f t="shared" si="28"/>
+        <v>0.75</v>
+      </c>
+      <c r="L83" s="63">
+        <f t="shared" si="28"/>
+        <v>0.75</v>
       </c>
       <c r="M83" s="58"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
     </row>
     <row r="84" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
@@ -3554,43 +3632,43 @@
         <v>0</v>
       </c>
       <c r="E84" s="65">
-        <f t="shared" ref="E84" si="35">ABS(E82-E83)</f>
+        <f t="shared" ref="E84" si="29">ABS(E82-E83)</f>
         <v>0</v>
       </c>
       <c r="F84" s="65">
-        <f t="shared" ref="F84" si="36">ABS(F82-F83)</f>
+        <f t="shared" ref="F84" si="30">ABS(F82-F83)</f>
         <v>0</v>
       </c>
       <c r="G84" s="65">
-        <f t="shared" ref="G84" si="37">ABS(G82-G83)</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="G84" si="31">ABS(G82-G83)</f>
+        <v>0</v>
       </c>
       <c r="H84" s="65">
-        <f t="shared" ref="H84" si="38">ABS(H82-H83)</f>
+        <f t="shared" ref="H84" si="32">ABS(H82-H83)</f>
         <v>0</v>
       </c>
       <c r="I84" s="65">
-        <f t="shared" ref="I84" si="39">ABS(I82-I83)</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="I84" si="33">ABS(I82-I83)</f>
+        <v>0.25</v>
       </c>
       <c r="J84" s="65">
-        <f t="shared" ref="J84" si="40">ABS(J82-J83)</f>
-        <v>0.40000000000000008</v>
+        <f t="shared" ref="J84" si="34">ABS(J82-J83)</f>
+        <v>0.25</v>
       </c>
       <c r="K84" s="65">
-        <f t="shared" ref="K84" si="41">ABS(K82-K83)</f>
-        <v>0</v>
+        <f t="shared" ref="K84" si="35">ABS(K82-K83)</f>
+        <v>0.25</v>
       </c>
       <c r="L84" s="66">
-        <f t="shared" ref="L84" si="42">ABS(L82-L83)</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="L84" si="36">ABS(L82-L83)</f>
+        <v>0.25</v>
       </c>
       <c r="M84" s="67">
         <f>AVERAGE(D84:L84)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
     </row>
     <row r="85" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C85" s="59" t="s">
@@ -3598,39 +3676,39 @@
       </c>
       <c r="D85" s="32">
         <f>(D81-1)/4</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E85" s="32">
-        <f t="shared" ref="E85:L85" si="43">(E81-1)/4</f>
-        <v>0.375</v>
+        <f t="shared" ref="E85:L85" si="37">(E81-1)/4</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.75</v>
+        <f t="shared" si="37"/>
+        <v>0.8</v>
       </c>
       <c r="G85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.625</v>
+        <f t="shared" si="37"/>
+        <v>0.7</v>
       </c>
       <c r="H85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.875</v>
+        <f t="shared" si="37"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.875</v>
+        <f t="shared" si="37"/>
+        <v>0.8</v>
       </c>
       <c r="J85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.625</v>
+        <f t="shared" si="37"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.875</v>
+        <f t="shared" si="37"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="L85" s="32">
-        <f t="shared" si="43"/>
-        <v>0.875</v>
+        <f t="shared" si="37"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3642,35 +3720,35 @@
         <v>0.20060266666666665</v>
       </c>
       <c r="E86" s="63">
-        <f t="shared" ref="E86:L86" si="44">(E75+1)/2</f>
+        <f t="shared" ref="E86:L86" si="38">(E75+1)/2</f>
         <v>0.40224866666666664</v>
       </c>
       <c r="F86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.72045000000000003</v>
       </c>
       <c r="G86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.74580866666666668</v>
       </c>
       <c r="H86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.89448400000000006</v>
       </c>
       <c r="I86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.50841466666666668</v>
       </c>
       <c r="J86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.26426000000000005</v>
       </c>
       <c r="K86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.73221066666666668</v>
       </c>
       <c r="L86" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0.63790000000000002</v>
       </c>
       <c r="M86" s="67"/>
@@ -3681,43 +3759,43 @@
       </c>
       <c r="D87" s="64">
         <f>ABS(D85-D86)</f>
-        <v>7.5602666666666651E-2</v>
+        <v>4.9397333333333349E-2</v>
       </c>
       <c r="E87" s="65">
-        <f t="shared" ref="E87" si="45">ABS(E85-E86)</f>
-        <v>2.7248666666666643E-2</v>
+        <f t="shared" ref="E87" si="39">ABS(E85-E86)</f>
+        <v>4.7751333333333312E-2</v>
       </c>
       <c r="F87" s="65">
-        <f t="shared" ref="F87" si="46">ABS(F85-F86)</f>
-        <v>2.9549999999999965E-2</v>
+        <f t="shared" ref="F87" si="40">ABS(F85-F86)</f>
+        <v>7.955000000000001E-2</v>
       </c>
       <c r="G87" s="65">
-        <f t="shared" ref="G87" si="47">ABS(G85-G86)</f>
-        <v>0.12080866666666668</v>
+        <f t="shared" ref="G87" si="41">ABS(G85-G86)</f>
+        <v>4.580866666666672E-2</v>
       </c>
       <c r="H87" s="65">
-        <f t="shared" ref="H87" si="48">ABS(H85-H86)</f>
-        <v>1.9484000000000057E-2</v>
+        <f t="shared" ref="H87" si="42">ABS(H85-H86)</f>
+        <v>5.5159999999998544E-3</v>
       </c>
       <c r="I87" s="65">
-        <f t="shared" ref="I87" si="49">ABS(I85-I86)</f>
-        <v>0.36658533333333332</v>
+        <f t="shared" ref="I87" si="43">ABS(I85-I86)</f>
+        <v>0.29158533333333336</v>
       </c>
       <c r="J87" s="65">
-        <f t="shared" ref="J87" si="50">ABS(J85-J86)</f>
-        <v>0.36073999999999995</v>
+        <f t="shared" ref="J87" si="44">ABS(J85-J86)</f>
+        <v>0.28573999999999999</v>
       </c>
       <c r="K87" s="65">
-        <f t="shared" ref="K87" si="51">ABS(K85-K86)</f>
-        <v>0.14278933333333332</v>
+        <f t="shared" ref="K87" si="45">ABS(K85-K86)</f>
+        <v>0.16778933333333323</v>
       </c>
       <c r="L87" s="66">
-        <f t="shared" ref="L87" si="52">ABS(L85-L86)</f>
-        <v>0.23709999999999998</v>
+        <f t="shared" ref="L87" si="46">ABS(L85-L86)</f>
+        <v>0.26209999999999989</v>
       </c>
       <c r="M87" s="67">
         <f>AVERAGE(D87:L87)</f>
-        <v>0.15332318518518517</v>
+        <v>0.13724866666666666</v>
       </c>
     </row>
     <row r="88" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3732,35 +3810,35 @@
         <v>0</v>
       </c>
       <c r="E88" s="32">
-        <f t="shared" ref="E88:L88" si="53">ROUND(E85,0)</f>
+        <f t="shared" ref="E88:L88" si="47">ROUND(E85,0)</f>
         <v>0</v>
       </c>
       <c r="F88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="K88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="L88" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -3773,35 +3851,35 @@
         <v>0</v>
       </c>
       <c r="E89" s="63">
-        <f t="shared" ref="E89:L89" si="54">ROUND(E86,0)</f>
+        <f t="shared" ref="E89:L89" si="48">ROUND(E86,0)</f>
         <v>0</v>
       </c>
       <c r="F89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="H89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="I89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="L89" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
@@ -3814,38 +3892,38 @@
         <v>1</v>
       </c>
       <c r="E90" s="64">
-        <f t="shared" ref="E90:L90" si="55">IF(E89=E88, 1, 0)</f>
+        <f t="shared" ref="E90:L90" si="49">IF(E89=E88, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="F90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="G90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="H90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="J90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="L90" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="M90" s="69">
+      <c r="M90" s="68">
         <f>AVERAGE(D90:L90)</f>
         <v>0.88888888888888884</v>
       </c>
